--- a/tables/TableS1_management_zones.xlsx
+++ b/tables/TableS1_management_zones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E307E00-BF38-9C4F-B48A-9AED5EB38A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB746F23-7993-CD4A-AEC9-9FF806F451C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25300" yWindow="8820" windowWidth="28040" windowHeight="17440" xr2:uid="{351012C4-CC5F-584D-814C-F653E2251634}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{351012C4-CC5F-584D-814C-F653E2251634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t># of sampling sites</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>1.0 ppm</t>
-  </si>
-  <si>
-    <t>Area closure, evisceration order</t>
   </si>
   <si>
     <t>Area closure, evisceration order
@@ -490,7 +487,7 @@
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,11 +589,11 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
